--- a/results/mp/logistic/corona/confidence/210/topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -73,10 +73,22 @@
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
@@ -85,55 +97,46 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>.</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +508,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -613,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.455026455026455</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3585271317829458</v>
+        <v>0.3236434108527132</v>
       </c>
       <c r="C5">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D5">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1879194630872483</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +766,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1416666666666667</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -781,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8459530026109661</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L7">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="M7">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,13 +816,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -839,13 +842,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -857,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -865,13 +868,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -891,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -917,13 +920,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -943,13 +946,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -969,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -987,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -995,13 +998,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1021,13 +1024,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1047,13 +1050,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.723404255319149</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1073,13 +1076,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1091,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1099,13 +1102,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1125,13 +1128,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6511627906976745</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1151,13 +1154,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6264705882352941</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L21">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1169,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1177,13 +1180,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.62</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1203,13 +1206,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5846153846153846</v>
+        <v>0.5864406779661017</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1229,13 +1232,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5690376569037657</v>
+        <v>0.5481171548117155</v>
       </c>
       <c r="L24">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M24">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1255,13 +1258,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.559322033898305</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L25">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="M25">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1273,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1281,13 +1284,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5571428571428572</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1299,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1307,13 +1310,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5531914893617021</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1333,13 +1336,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4719101123595505</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1351,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1359,25 +1362,51 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.005019072475406545</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L29">
         <v>25</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N29">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>4956</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>0.006024096385542169</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>46</v>
+      </c>
+      <c r="N30">
+        <v>0.65</v>
+      </c>
+      <c r="O30">
+        <v>0.35</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>4950</v>
       </c>
     </row>
   </sheetData>
